--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W5_H100_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W5_H100_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5631067961165048</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5555555555555556</v>
-      </c>
+        <v>0.5535714285714286</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9354838709677419</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5625</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7030303030303031</v>
+        <v>0.7126436781609196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4940476190476191</v>
+        <v>0.4880952380952381</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.06447445872782769</v>
+        <v>0.05534963874517489</v>
       </c>
       <c r="J2" t="n">
-        <v>863.5758161200447</v>
+        <v>731.5549816361336</v>
       </c>
       <c r="K2" t="n">
-        <v>1164056.114277891</v>
+        <v>773010.6732676876</v>
       </c>
       <c r="L2" t="n">
-        <v>1078.914322028348</v>
+        <v>879.2102554381902</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7854783041787547</v>
+        <v>0.8575433276082431</v>
       </c>
     </row>
   </sheetData>
